--- a/Task2/Result.xlsx
+++ b/Task2/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KG_LLM\Project_LLM\New_LLM_KG\Task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BBCDB8F-8B25-4519-A09D-E0FE7B862588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CFF14C-924B-4179-8690-2E48C50702A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A133C14F-D8E2-431D-85BA-780D24885122}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="308">
   <si>
     <t>Indicators</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -602,9 +602,6 @@
     <t>Wrong1</t>
   </si>
   <si>
-    <t>two extra indicators</t>
-  </si>
-  <si>
     <t>wrong1</t>
   </si>
   <si>
@@ -624,23 +621,10 @@
   </si>
   <si>
     <t>Total weight of waste generated in metric tons, and a breakdown of this total by composition of the waste.</t>
-  </si>
-  <si>
-    <t>one extra</t>
-  </si>
-  <si>
-    <t>three extra</t>
-  </si>
-  <si>
-    <t>all correct</t>
   </si>
   <si>
     <t xml:space="preserve"> 
             "Total weight of non-hazardous waste diverted from disposal in metric tons",</t>
-  </si>
-  <si>
-    <t>four extra</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>305-13</t>
@@ -1198,10 +1182,6 @@
       <t>Types of energy included in the reductions
 Basis for calculating reductions in energy consumption</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1876,10 +1856,6 @@
             "(Production, imports, and exports of ODS in metric tons of CFC-11 equivalent, has unit, metric tons of CFC-11 equivalent)",
             "(Production, imports, and exports of ODS in metric tons of CFC-11 equivalent, has applicability, mandatory)"
        </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 false prediction</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2586,7 +2562,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2640,9 +2616,6 @@
     </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2958,10 +2931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DCDC22-5521-4751-A38D-B4354BC30C10}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2971,15 +2944,14 @@
     <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="83" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="205.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="186.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="205.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="186.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2987,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2995,23 +2967,20 @@
       <c r="E1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
@@ -3027,21 +2996,20 @@
       <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
@@ -3057,21 +3025,20 @@
       <c r="E3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -3087,21 +3054,20 @@
       <c r="E4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
@@ -3112,26 +3078,25 @@
         <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
@@ -3142,26 +3107,25 @@
         <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>114</v>
+        <v>243</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -3172,26 +3136,25 @@
         <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>117</v>
       </c>
@@ -3202,26 +3165,25 @@
         <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>117</v>
       </c>
@@ -3232,26 +3194,25 @@
         <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>117</v>
       </c>
@@ -3262,26 +3223,25 @@
         <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -3297,21 +3257,20 @@
       <c r="E11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -3327,21 +3286,20 @@
       <c r="E12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>118</v>
       </c>
@@ -3352,25 +3310,25 @@
         <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
@@ -3386,20 +3344,20 @@
       <c r="E14" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="165.6" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
@@ -3413,27 +3371,24 @@
         <v>121</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
@@ -3442,25 +3397,25 @@
         <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>114</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
@@ -3468,31 +3423,28 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>144</v>
       </c>
@@ -3503,25 +3455,25 @@
         <v>114</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -3530,27 +3482,27 @@
         <v>114</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>126</v>
@@ -3562,27 +3514,24 @@
         <v>127</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="179.4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
@@ -3594,33 +3543,30 @@
         <v>129</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>130</v>
@@ -3628,101 +3574,95 @@
       <c r="E22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>284</v>
+        <v>152</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E25" s="16"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G25" s="1" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>142</v>
       </c>
@@ -3730,193 +3670,190 @@
         <v>134</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
@@ -3924,29 +3861,28 @@
         <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="G33" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>140</v>
       </c>
@@ -3954,7 +3890,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>138</v>
@@ -3962,21 +3898,20 @@
       <c r="E34" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="165.6" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
         <v>31</v>
@@ -3985,112 +3920,106 @@
         <v>114</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>160</v>
+        <v>299</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="G36" s="1" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J36" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G37" s="1" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J37" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I37" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G38" s="1" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J38" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="1" t="s">
         <v>35</v>
@@ -4099,110 +4028,106 @@
         <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F39" s="11"/>
+        <v>291</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G39" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G40" s="1" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J40" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J41" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G42" s="1" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J42" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I42" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>139</v>
       </c>
@@ -4210,29 +4135,28 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G43" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="1" t="s">
         <v>42</v>
@@ -4241,125 +4165,121 @@
         <v>114</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J45" s="12" t="s">
+      <c r="H45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J46" s="11" t="s">
+      <c r="H46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J47" s="11" t="s">
+      <c r="H47" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I47" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J48" s="11" t="s">
+      <c r="H48" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="1" t="s">
         <v>47</v>
@@ -4368,149 +4288,141 @@
         <v>114</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J50" s="12" t="s">
+      <c r="H50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I50" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J51" s="11" t="s">
+      <c r="H51" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I51" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J52" s="11" t="s">
+      <c r="H52" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I52" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J53" s="11" t="s">
+      <c r="H53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I53" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-    </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J23:J25"/>
+  <mergeCells count="7">
+    <mergeCell ref="I23:I25"/>
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A43:A53"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
